--- a/ETH_动态挂单表.xlsx
+++ b/ETH_动态挂单表.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="挂单_20250621_141746" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="挂单_20250621_150733" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="挂单_20250622_130003" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="挂单_20250622_130902" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1202,40 +1202,49 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2518.24</v>
+        <v>2373.46</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2523.24</v>
+        <v>2281.932</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2472.78</v>
+        <v>2330.89</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>2674.62</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>1.9816</v>
+        <v>2521.17</v>
+      </c>
+      <c r="G2" s="5">
+        <f>H2/D2</f>
+        <v/>
       </c>
       <c r="H2" s="5" t="n">
-        <v>5000</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>299.97</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>99.98999999999999</v>
+      <c r="J2" s="5">
+        <f>(F2-D2)*G2*I2</f>
+        <v/>
+      </c>
+      <c r="K2" s="5">
+        <f>(D2-E2)*G2*I2</f>
+        <v/>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>约 153.3 分钟</t>
+          <t>约 43.7 分钟</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
         <is>
-          <t>现价:2421.38, MA5:2422.43, MA20:2424.00. 分析: MA5上穿MA20金叉，看涨。结论: 建议追多。缠论分析: 未形成明显分型。</t>
+          <t>现价: 2282.17
+均线: MA5=2283.29, MA10=2283.03, MA20=2281.01, MA30=2281.77
+均线分析: MA5上穿MA20金叉，看涨。建议追多。
+动量指标: RSI14=59.4, MACD=0.07
+布林带区间: [2275.32, 2281.01, 2286.69]
+缠论分型: 缠论分析: 未形成明显分型。
+ 波段区间[2280.80~2286.46]，动态资金:6667。</t>
         </is>
       </c>
     </row>
@@ -1251,40 +1260,49 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>2324.52</v>
+        <v>2190.88</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2319.52</v>
+        <v>2285.328</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2365.91</v>
+        <v>2229.6</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>2180.35</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>2.1556</v>
+        <v>2054.72</v>
+      </c>
+      <c r="G3" s="5">
+        <f>H3/D3</f>
+        <v/>
       </c>
       <c r="H3" s="5" t="n">
-        <v>5000</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>299.99</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>100</v>
+      <c r="J3" s="5">
+        <f>(D3-F3)*G3*I3</f>
+        <v/>
+      </c>
+      <c r="K3" s="5">
+        <f>(E3-D3)*G3*I3</f>
+        <v/>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>约 153.3 分钟</t>
+          <t>约 43.7 分钟</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
         <is>
-          <t>现价:2421.38, MA5:2422.43, MA20:2424.00. 分析: MA5下穿MA20死叉，看跌。结论: 建议追空。缠论分析: 未形成明显分型。</t>
+          <t>现价: 2282.17
+均线: MA5=2283.29, MA10=2283.03, MA20=2281.01, MA30=2281.77
+均线分析: MA5上穿MA20金叉，看涨。建议追多。
+动量指标: RSI14=59.4, MACD=0.07
+布林带区间: [2275.32, 2281.01, 2286.69]
+缠论分型: 缠论分析: 未形成明显分型。
+ 波段区间[2280.80~2286.46]，动态资金:6667。</t>
         </is>
       </c>
     </row>
@@ -1401,23 +1419,23 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2519.23</v>
+        <v>2381.5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2524.23</v>
+        <v>2283.658</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2473.75</v>
+        <v>2338.77</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>2675.67</v>
+        <v>2529.69</v>
       </c>
       <c r="G2" s="5">
         <f>H2/D2</f>
         <v/>
       </c>
       <c r="H2" s="5" t="n">
-        <v>5000</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>10</v>
@@ -1432,12 +1450,20 @@
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>约 131.5 分钟</t>
+          <t>约 39.6 分钟</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
         <is>
-          <t>现价:2422.34, MA5:2423.51, MA20:2425.42. 分析: MA5上穿MA20金叉，看涨。结论: 建议追多。缠论分析: 未形成明显分型。</t>
+          <t xml:space="preserve">现价: 2289.90
+均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
+均线分析: 多周期均线多头共振，强烈看涨。建议积极做多。
+动量指标: RSI14=69.2, MACD=0.46
+布林带区间: [2279.32, 2285.36, 2291.40]
+缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
+波段区间: [2281.69~2291.53]
+动态资金: 6667
+</t>
         </is>
       </c>
     </row>
@@ -1453,23 +1479,23 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>2325.45</v>
+        <v>2198.3</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2320.45</v>
+        <v>2289.562</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2366.86</v>
+        <v>2237.17</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>2181.22</v>
+        <v>2061.69</v>
       </c>
       <c r="G3" s="5">
         <f>H3/D3</f>
         <v/>
       </c>
       <c r="H3" s="5" t="n">
-        <v>5000</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>10</v>
@@ -1484,12 +1510,20 @@
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>约 131.5 分钟</t>
+          <t>约 39.6 分钟</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
         <is>
-          <t>现价:2422.34, MA5:2423.51, MA20:2425.42. 分析: MA5下穿MA20死叉，看跌。结论: 建议追空。缠论分析: 未形成明显分型。</t>
+          <t xml:space="preserve">现价: 2289.90
+均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
+均线分析: 多周期均线空头共振，强烈看跌。建议积极做空。
+动量指标: RSI14=69.2, MACD=0.46
+布林带区间: [2279.32, 2285.36, 2291.40]
+缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
+波段区间: [2281.69~2291.53]
+动态资金: 6667
+</t>
         </is>
       </c>
     </row>

--- a/ETH_动态挂单表.xlsx
+++ b/ETH_动态挂单表.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="挂单_20250622_130003" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="挂单_20250622_130902" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="挂单_20250622_130902" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="挂单_20250622_175833" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2373.46</v>
+        <v>2381.5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2281.932</v>
+        <v>2283.658</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2330.89</v>
+        <v>2338.77</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>2521.17</v>
+        <v>2529.69</v>
       </c>
       <c r="G2" s="5">
         <f>H2/D2</f>
@@ -1233,18 +1233,20 @@
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>约 43.7 分钟</t>
+          <t>约 39.6 分钟</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
         <is>
-          <t>现价: 2282.17
-均线: MA5=2283.29, MA10=2283.03, MA20=2281.01, MA30=2281.77
-均线分析: MA5上穿MA20金叉，看涨。建议追多。
-动量指标: RSI14=59.4, MACD=0.07
-布林带区间: [2275.32, 2281.01, 2286.69]
-缠论分型: 缠论分析: 未形成明显分型。
- 波段区间[2280.80~2286.46]，动态资金:6667。</t>
+          <t xml:space="preserve">现价: 2289.90
+均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
+均线分析: 多周期均线多头共振，强烈看涨。建议积极做多。
+动量指标: RSI14=69.2, MACD=0.46
+布林带区间: [2279.32, 2285.36, 2291.40]
+缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
+波段区间: [2281.69~2291.53]
+动态资金: 6667
+</t>
         </is>
       </c>
     </row>
@@ -1260,16 +1262,16 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>2190.88</v>
+        <v>2198.3</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2285.328</v>
+        <v>2289.562</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2229.6</v>
+        <v>2237.17</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>2054.72</v>
+        <v>2061.69</v>
       </c>
       <c r="G3" s="5">
         <f>H3/D3</f>
@@ -1291,18 +1293,20 @@
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>约 43.7 分钟</t>
+          <t>约 39.6 分钟</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
         <is>
-          <t>现价: 2282.17
-均线: MA5=2283.29, MA10=2283.03, MA20=2281.01, MA30=2281.77
-均线分析: MA5上穿MA20金叉，看涨。建议追多。
-动量指标: RSI14=59.4, MACD=0.07
-布林带区间: [2275.32, 2281.01, 2286.69]
-缠论分型: 缠论分析: 未形成明显分型。
- 波段区间[2280.80~2286.46]，动态资金:6667。</t>
+          <t xml:space="preserve">现价: 2289.90
+均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
+均线分析: 多周期均线空头共振，强烈看跌。建议积极做空。
+动量指标: RSI14=69.2, MACD=0.46
+布林带区间: [2279.32, 2285.36, 2291.40]
+缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
+波段区间: [2281.69~2291.53]
+动态资金: 6667
+</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,9 +1339,7 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="80" customWidth="1" min="13" max="13"/>
+    <col width="80" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1353,7 +1355,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>触发价格</t>
+          <t>触发信号</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1378,30 +1380,20 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>投资资金</t>
+          <t>杠杆倍数</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>杠杆倍数</t>
+          <t>预计盈利</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>预计盈利</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
           <t>预计亏损</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>预计到达时间</t>
-        </is>
-      </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -1410,120 +1402,44 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>ETH突破追多</t>
+          <t>ETH趋势追空</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2381.5</v>
+        <v>2237.83</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2283.658</v>
+        <v>2242.31</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2338.77</v>
+        <v>2581.84</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>2529.69</v>
+        <v>1223.72</v>
       </c>
       <c r="G2" s="5">
-        <f>H2/D2</f>
+        <f>5000/2242.31</f>
         <v/>
       </c>
       <c r="H2" s="5" t="n">
-        <v>6666.666666666667</v>
-      </c>
-      <c r="I2" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="I2" s="5">
+        <f>(2242.31-1223.72)*G3*I3</f>
+        <v/>
+      </c>
       <c r="J2" s="5">
-        <f>(F2-D2)*G2*I2</f>
+        <f>(2581.84-2242.31)*G3*I3</f>
         <v/>
       </c>
-      <c r="K2" s="5">
-        <f>(D2-E2)*G2*I2</f>
-        <v/>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>约 39.6 分钟</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">现价: 2289.90
-均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
-均线分析: 多周期均线多头共振，强烈看涨。建议积极做多。
-动量指标: RSI14=69.2, MACD=0.46
-布林带区间: [2279.32, 2285.36, 2291.40]
-缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
-波段区间: [2281.69~2291.53]
-动态资金: 6667
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>ETH突破追空</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>2198.3</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>2289.562</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2237.17</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>2061.69</v>
-      </c>
-      <c r="G3" s="5">
-        <f>H3/D3</f>
-        <v/>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>6666.666666666667</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <f>(D3-F3)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="K3" s="5">
-        <f>(E3-D3)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>约 39.6 分钟</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">现价: 2289.90
-均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
-均线分析: 多周期均线空头共振，强烈看跌。建议积极做空。
-动量指标: RSI14=69.2, MACD=0.46
-布林带区间: [2279.32, 2285.36, 2291.40]
-缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
-波段区间: [2281.69~2291.53]
-动态资金: 6667
-</t>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>主趋势分析: 空头，日线EMA20之下，市场弱势。|波段结构分析: 下降趋势延续，形成更低高点(2569.00)，确认阻力。|入场信号分析: 15分钟线出现显著放量(13803 &gt; 6101)，动能增强。|核心策略: 趋势黄金三角 (多周期共振)。|风险评估: 盈亏比大于3:1，止损设置于关键结构位上方，风险可控。</t>
         </is>
       </c>
     </row>

--- a/ETH_动态挂单表.xlsx
+++ b/ETH_动态挂单表.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="挂单_20250622_130902" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="挂单_20250622_175833" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="挂单_20250622_183707" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="挂单_20250622_183833" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1100,217 +1100,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="80" customWidth="1" min="13" max="13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>方向</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>触发价格</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>挂单价格</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>止损价格</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>止盈价格</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>投资资金</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>杠杆倍数</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>预计盈利</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>预计亏损</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>预计到达时间</t>
-        </is>
-      </c>
-      <c r="M1" s="4" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>ETH突破追多</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>2381.5</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>2283.658</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2338.77</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>2529.69</v>
-      </c>
-      <c r="G2" s="5">
-        <f>H2/D2</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>6666.666666666667</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5">
-        <f>(F2-D2)*G2*I2</f>
-        <v/>
-      </c>
-      <c r="K2" s="5">
-        <f>(D2-E2)*G2*I2</f>
-        <v/>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>约 39.6 分钟</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">现价: 2289.90
-均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
-均线分析: 多周期均线多头共振，强烈看涨。建议积极做多。
-动量指标: RSI14=69.2, MACD=0.46
-布林带区间: [2279.32, 2285.36, 2291.40]
-缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
-波段区间: [2281.69~2291.53]
-动态资金: 6667
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>ETH突破追空</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>2198.3</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>2289.562</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2237.17</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>2061.69</v>
-      </c>
-      <c r="G3" s="5">
-        <f>H3/D3</f>
-        <v/>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>6666.666666666667</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <f>(D3-F3)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="K3" s="5">
-        <f>(E3-D3)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>约 39.6 分钟</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">现价: 2289.90
-均线: MA5=2289.59, MA10=2287.75, MA20=2285.36, MA30=2283.09
-均线分析: 多周期均线空头共振，强烈看跌。建议积极做空。
-动量指标: RSI14=69.2, MACD=0.46
-布林带区间: [2279.32, 2285.36, 2291.40]
-缠论分型: 缠论分析: 最近3根K线形成底分型，可能看涨。
-波段区间: [2281.69~2291.53]
-动态资金: 6667
-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1321,129 +1118,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="80" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>方向</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>触发信号</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>挂单价格</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>止损价格</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>止盈价格</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>杠杆倍数</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>预计盈利</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>预计亏损</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>ETH趋势追空</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>2237.83</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>2242.31</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2581.84</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1223.72</v>
-      </c>
-      <c r="G2" s="5">
-        <f>5000/2242.31</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5">
-        <f>(2242.31-1223.72)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="J2" s="5">
-        <f>(2581.84-2242.31)*G3*I3</f>
-        <v/>
-      </c>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>主趋势分析: 空头，日线EMA20之下，市场弱势。|波段结构分析: 下降趋势延续，形成更低高点(2569.00)，确认阻力。|入场信号分析: 15分钟线出现显著放量(13803 &gt; 6101)，动能增强。|核心策略: 趋势黄金三角 (多周期共振)。|风险评估: 盈亏比大于3:1，止损设置于关键结构位上方，风险可控。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ETH_动态挂单表.xlsx
+++ b/ETH_动态挂单表.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="挂单_20250622_183707" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="挂单_20250622_183833" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Init" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="挂单_20250622_183707" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="挂单_20250622_183833" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1128,4 +1129,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>